--- a/ClanCompetitionStatistics/2025/4月/比赛2/2025-04-04.xlsx
+++ b/ClanCompetitionStatistics/2025/4月/比赛2/2025-04-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vue\template\ClanWarStatistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vue\template\ClanWarStatistics\ClanCompetitionStatistics\2025\4月\比赛2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2727F-8970-4114-BF6D-8EA152FA6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025F52FB-22A2-4D90-A3B9-63F1D914E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +46,9 @@
     <t>评价</t>
   </si>
   <si>
+    <t>(player)</t>
+  </si>
+  <si>
     <t>新成员</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>1.TOP 100% ★★★</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>天赋</t>
   </si>
   <si>
@@ -67,120 +67,126 @@
     <t>14.总有刁民想抢朕的金币！100% ★★★</t>
   </si>
   <si>
+    <t>云雀1</t>
+  </si>
+  <si>
+    <t>3.~~温文尔雅~~ 100% ★★★</t>
+  </si>
+  <si>
+    <t>沐、澈</t>
+  </si>
+  <si>
+    <t>4.scar 100% ★★★</t>
+  </si>
+  <si>
+    <t>缍飒</t>
+  </si>
+  <si>
+    <t>5.Mi Manchi 100% ★★★</t>
+  </si>
+  <si>
+    <t>不悔谷</t>
+  </si>
+  <si>
+    <t>6.Ekwaak的倒膜销售商 74% ★★☆</t>
+  </si>
+  <si>
+    <t>其實很簡單</t>
+  </si>
+  <si>
+    <t>7.小邪医 67% ★★☆</t>
+  </si>
+  <si>
+    <t>关山</t>
+  </si>
+  <si>
+    <t>8.幽冥山庄 93% ★★☆</t>
+  </si>
+  <si>
+    <t>星星vitas</t>
+  </si>
+  <si>
+    <t>9.刘一刀 93% ★★☆</t>
+  </si>
+  <si>
+    <t>閃耀、天使</t>
+  </si>
+  <si>
+    <t>10.嘻嘻 100% ★★★</t>
+  </si>
+  <si>
+    <t>留白</t>
+  </si>
+  <si>
+    <t>11.[ 闷于现状 ] 76% ★★☆</t>
+  </si>
+  <si>
+    <t>石村</t>
+  </si>
+  <si>
+    <t>12.勾栏听曲❀浪肾 95% ★☆☆</t>
+  </si>
+  <si>
+    <t>穿云不穿隐身塔  飞艇被抓  你不会斜着飞吗?  8秒金身那么远肯定不够</t>
+  </si>
+  <si>
+    <t>剑中之贼。</t>
+  </si>
+  <si>
+    <t>13.逝去、年华 99% ★★☆</t>
+  </si>
+  <si>
+    <t>wiusyx</t>
+  </si>
+  <si>
+    <t>2.勾栏听曲❀浪心 100% ★★★</t>
+  </si>
+  <si>
+    <t>顺其自然</t>
+  </si>
+  <si>
+    <t>副首领</t>
+  </si>
+  <si>
+    <t>15.望不见日月望星辰 100% ★★★</t>
+  </si>
+  <si>
+    <t>靓譚</t>
+  </si>
+  <si>
+    <t>16.等不到天亮等时光 90% ★★☆</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>17.亭小言 100% ★★★</t>
+  </si>
+  <si>
+    <t>爱总是身不由己</t>
+  </si>
+  <si>
+    <t>18.雅熙エ 73% ★★☆</t>
+  </si>
+  <si>
+    <t>煞￡长灬丿啸</t>
+  </si>
+  <si>
+    <t>19.羊宝宝 84% ★☆☆</t>
+  </si>
+  <si>
+    <t>闰土早死 飞艇被抓 你这运气</t>
+  </si>
+  <si>
+    <t>Sg-Group❄吴彦祖</t>
+  </si>
+  <si>
+    <t>20.da聪明跟我冲 100% ★★★</t>
+  </si>
+  <si>
     <t>云雀</t>
   </si>
   <si>
-    <t>3.~~温文尔雅~~ 100% ★★★</t>
-  </si>
-  <si>
-    <t>沐、澈</t>
-  </si>
-  <si>
-    <t>4.scar 100% ★★★</t>
-  </si>
-  <si>
-    <t>5.Mi Manchi 100% ★★★</t>
-  </si>
-  <si>
-    <t>不悔谷</t>
-  </si>
-  <si>
-    <t>6.Ekwaak的倒膜销售商 74% ★★☆</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>其實很簡單</t>
-  </si>
-  <si>
-    <t>7.小邪医 67% ★★☆</t>
-  </si>
-  <si>
-    <t>关山</t>
-  </si>
-  <si>
-    <t>8.幽冥山庄 93% ★★☆</t>
-  </si>
-  <si>
-    <t>星星vitas</t>
-  </si>
-  <si>
-    <t>9.刘一刀 93% ★★☆</t>
-  </si>
-  <si>
-    <t>閃耀、天使</t>
-  </si>
-  <si>
-    <t>10.嘻嘻 100% ★★★</t>
-  </si>
-  <si>
-    <t>留白</t>
-  </si>
-  <si>
-    <t>11.[ 闷于现状 ] 76% ★★☆</t>
-  </si>
-  <si>
-    <t>石村</t>
-  </si>
-  <si>
-    <t>12.勾栏听曲❀浪肾 95% ★☆☆</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>剑中之贼。</t>
-  </si>
-  <si>
-    <t>13.逝去、年华 99% ★★☆</t>
-  </si>
-  <si>
-    <t>wiusyx</t>
-  </si>
-  <si>
-    <t>2.勾栏听曲❀浪心 100% ★★★</t>
-  </si>
-  <si>
-    <t>順其自然</t>
-  </si>
-  <si>
-    <t>副首领</t>
-  </si>
-  <si>
-    <t>15.望不见日月望星辰 100% ★★★</t>
-  </si>
-  <si>
-    <t>觀譚</t>
-  </si>
-  <si>
-    <t>16.等不到天亮等时光 90% ★★☆</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>17.亭小言 100% ★★★</t>
-  </si>
-  <si>
-    <t>爱总是身不由己</t>
-  </si>
-  <si>
-    <t>18.雅熙エ 73% ★★☆</t>
-  </si>
-  <si>
-    <t>煞￡长灬丿啸</t>
-  </si>
-  <si>
-    <t>19.羊宝宝 84% ★☆☆</t>
-  </si>
-  <si>
-    <t>Sg-Group❄吴彦祖</t>
-  </si>
-  <si>
-    <t>20.da聪明跟我冲 100% ★★★</t>
-  </si>
-  <si>
     <t>21.猫弦 100% ★★★</t>
   </si>
   <si>
@@ -236,26 +242,6 @@
   </si>
   <si>
     <t>30.浮生逍遥 88% ★★☆</t>
-  </si>
-  <si>
-    <t>穿云不穿隐身塔  飞艇被抓  你不会斜着飞吗?  8秒金身那么远肯定不够</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闰土早死 飞艇被抓 你这运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云雀1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缍飒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,7 +625,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -647,14 +633,14 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="57" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="49.44140625" customWidth="1"/>
+    <col min="8" max="8" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,22 +671,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>256</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -718,13 +704,13 @@
         <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+      <c r="G3" s="2">
+        <v>3</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -733,18 +719,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
+      <c r="G4" s="2">
+        <v>3</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -762,13 +748,13 @@
         <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+      <c r="G5" s="2">
+        <v>3</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -777,20 +763,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -799,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -808,13 +794,13 @@
         <v>222</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -830,13 +816,13 @@
         <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
+      <c r="G8" s="2">
+        <v>2</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -854,13 +840,13 @@
         <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
+      <c r="G9" s="2">
+        <v>2</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -878,13 +864,13 @@
         <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
+      <c r="G10" s="2">
+        <v>2</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -896,19 +882,19 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>227</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
+      <c r="G11" s="2">
+        <v>3</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -926,17 +912,17 @@
         <v>208</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
+      <c r="G12" s="2">
+        <v>2</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -950,16 +936,16 @@
         <v>182</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,19 +956,19 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
+      <c r="G14" s="2">
+        <v>2</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1000,13 +986,13 @@
         <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
+      <c r="G15" s="2">
+        <v>3</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1024,13 +1010,13 @@
         <v>241</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
+      <c r="G16" s="2">
+        <v>3</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1048,13 +1034,13 @@
         <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
+      <c r="G17" s="2">
+        <v>2</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1072,13 +1058,13 @@
         <v>208</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
+      <c r="G18" s="2">
+        <v>3</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1096,13 +1082,13 @@
         <v>183</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
+      <c r="G19" s="2">
+        <v>2</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1120,16 +1106,16 @@
         <v>206</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
+      <c r="G20" s="2">
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>41</v>
@@ -1146,13 +1132,13 @@
         <v>254</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1161,18 +1147,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1181,7 +1167,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
@@ -1190,13 +1176,13 @@
         <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1205,7 +1191,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
@@ -1214,13 +1200,13 @@
         <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1229,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
@@ -1238,13 +1224,13 @@
         <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1253,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -1262,13 +1248,13 @@
         <v>192</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1277,20 +1263,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1299,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
@@ -1308,13 +1294,13 @@
         <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1323,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -1332,13 +1318,13 @@
         <v>220</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1347,7 +1333,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -1356,13 +1342,13 @@
         <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1371,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -1380,13 +1366,13 @@
         <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
       </c>
       <c r="H31" s="2"/>
     </row>
